--- a/Cahier des charges.xlsx
+++ b/Cahier des charges.xlsx
@@ -1352,356 +1352,356 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7248,320 +7248,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="47"/>
-      <c r="Y1" s="58" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
+      <c r="Y1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="63" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="63"/>
+      <c r="AC1" s="68"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="50"/>
-      <c r="Y2" s="65" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
+      <c r="Y2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="64" t="s">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="64"/>
+      <c r="AC2" s="69"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="57"/>
+      <c r="J3" s="56"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="56" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="Y3" s="65" t="s">
+      <c r="V3" s="56"/>
+      <c r="Y3" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="64" t="s">
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="64"/>
+      <c r="AC3" s="69"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="61" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="58"/>
       <c r="L4" s="6"/>
       <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59" t="s">
+      <c r="O4" s="46"/>
+      <c r="P4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="58" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="61" t="s">
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="Y4" s="65" t="s">
+      <c r="V4" s="58"/>
+      <c r="Y4" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="64" t="s">
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="64"/>
+      <c r="AC4" s="69"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
       <c r="L5" s="6"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-      <c r="Y5" s="65" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="60"/>
+      <c r="Y5" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="64" t="s">
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="64"/>
+      <c r="AC5" s="69"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="33"/>
-      <c r="Y6" s="65" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="60"/>
+      <c r="Y6" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="64" t="s">
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="AC6" s="64"/>
+      <c r="AC6" s="69"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="60"/>
       <c r="M7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="33"/>
-      <c r="Y7" s="65" t="s">
+      <c r="V7" s="60"/>
+      <c r="Y7" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="64" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="64"/>
+      <c r="AC7" s="69"/>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="62"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
@@ -7572,821 +7572,821 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="60"/>
       <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="30" t="s">
+      <c r="O9" s="32"/>
+      <c r="P9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="31" t="s">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32" t="s">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="33"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="32" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="60"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30" t="s">
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30" t="s">
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="31"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="32" t="s">
+      <c r="S10" s="32"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="V10" s="33"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="32" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="60"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30" t="s">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="32" t="s">
+      <c r="S11" s="32"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V11" s="33"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="32" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="60"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30" t="s">
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="31"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="32" t="s">
+      <c r="S12" s="32"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="V12" s="33"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="37" t="s">
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="64"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35" t="s">
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="34" t="s">
+      <c r="Q13" s="35"/>
+      <c r="R13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="37" t="s">
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="V13" s="38"/>
+      <c r="V13" s="64"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="60"/>
       <c r="M14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="30" t="s">
+      <c r="O14" s="32"/>
+      <c r="P14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="31" t="s">
+      <c r="Q14" s="30"/>
+      <c r="R14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="32" t="s">
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="V14" s="33"/>
+      <c r="V14" s="60"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="37" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="64"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35" t="s">
+      <c r="O15" s="33"/>
+      <c r="P15" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="34" t="s">
+      <c r="Q15" s="35"/>
+      <c r="R15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="37" t="s">
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="38"/>
+      <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="60"/>
       <c r="M16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="30" t="s">
+      <c r="O16" s="32"/>
+      <c r="P16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="31" t="s">
+      <c r="Q16" s="30"/>
+      <c r="R16" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32" t="s">
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="33"/>
+      <c r="V16" s="60"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="37" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="64"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="34" t="s">
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="37" t="s">
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="V17" s="38"/>
+      <c r="V17" s="64"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="M18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="30" t="s">
+      <c r="O18" s="32"/>
+      <c r="P18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31" t="s">
+      <c r="Q18" s="30"/>
+      <c r="R18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="60"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35" t="s">
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="34" t="s">
+      <c r="Q19" s="35"/>
+      <c r="R19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="38"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="60"/>
       <c r="M20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="31"/>
-      <c r="P20" s="30" t="s">
+      <c r="O20" s="32"/>
+      <c r="P20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="31" t="s">
+      <c r="Q20" s="30"/>
+      <c r="R20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32" t="s">
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="V20" s="33"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30" t="s">
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="31" t="s">
+      <c r="Q21" s="30"/>
+      <c r="R21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="33"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="60"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="38"/>
+      <c r="J22" s="64"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="35" t="s">
+      <c r="N22" s="67"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="37" t="s">
+      <c r="S22" s="33"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="V22" s="38"/>
+      <c r="V22" s="64"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="33"/>
+      <c r="J23" s="60"/>
       <c r="M23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="30" t="s">
+      <c r="O23" s="32"/>
+      <c r="P23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="31" t="s">
+      <c r="Q23" s="30"/>
+      <c r="R23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32" t="s">
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="V23" s="33"/>
+      <c r="V23" s="60"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32" t="s">
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="33"/>
+      <c r="J24" s="60"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="31" t="s">
+      <c r="O24" s="32"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32" t="s">
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="V24" s="33"/>
+      <c r="V24" s="60"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="35" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="38"/>
+      <c r="J25" s="64"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="35" t="s">
+      <c r="N25" s="67"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="35" t="s">
+      <c r="Q25" s="35"/>
+      <c r="R25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37" t="s">
+      <c r="S25" s="33"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="38"/>
+      <c r="V25" s="64"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="32" t="s">
+      <c r="G26" s="32"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="60"/>
       <c r="M26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="28" t="s">
+      <c r="N26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30" t="s">
+      <c r="O26" s="30"/>
+      <c r="P26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30" t="s">
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="S26" s="31"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="32" t="s">
+      <c r="S26" s="32"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="V26" s="33"/>
+      <c r="V26" s="60"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="32" t="s">
+      <c r="G27" s="32"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="60"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30" t="s">
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="S27" s="31"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="32" t="s">
+      <c r="S27" s="32"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="V27" s="33"/>
+      <c r="V27" s="60"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30" t="s">
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="33"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="60"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30" t="s">
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="33"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="60"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="34" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="34" t="s">
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="38"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="64"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32" t="s">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="60"/>
       <c r="M31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="31"/>
-      <c r="P31" s="30" t="s">
+      <c r="O31" s="32"/>
+      <c r="P31" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="31" t="s">
+      <c r="Q31" s="30"/>
+      <c r="R31" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="32" t="s">
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="V31" s="33"/>
+      <c r="V31" s="60"/>
     </row>
     <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="27"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="66"/>
     </row>
     <row r="33" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
@@ -10141,6 +10141,238 @@
     </row>
   </sheetData>
   <mergeCells count="256">
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="M1:V2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:H32"/>
@@ -10165,238 +10397,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="M1:V2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:V31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10418,520 +10418,520 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="90" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="91"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="69" t="s">
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="92" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="96" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="78" t="s">
+      <c r="E9" s="87"/>
+      <c r="F9" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="43" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="44"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="88" t="s">
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="89"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="37" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="37" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="37" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
@@ -10948,16 +10948,97 @@
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:H33"/>
@@ -10982,97 +11063,16 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11087,522 +11087,522 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="90" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="91"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="61" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="32" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="32" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="43" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="44"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="38"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="128" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131" t="s">
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="37" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="128" t="s">
+      <c r="C16" s="101"/>
+      <c r="D16" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131" t="s">
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="139"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="128" t="s">
+      <c r="C17" s="101"/>
+      <c r="D17" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="131" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="139"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
@@ -11619,114 +11619,6 @@
     <row r="37" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -11744,6 +11636,114 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11768,516 +11768,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="52" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="90" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="91"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="118" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="118" t="s">
+      <c r="E4" s="136"/>
+      <c r="F4" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="37" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105" t="s">
+      <c r="E5" s="121"/>
+      <c r="F5" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107" t="s">
+      <c r="G5" s="121"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="108"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="126" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="128" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131" t="s">
+      <c r="E11" s="103"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="127"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="37" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="124" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="125"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="37" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="37" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
@@ -12294,98 +12294,23 @@
     <row r="38" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
@@ -12406,23 +12331,98 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
